--- a/Data/Source_Data/Issues_Data/Production_Data.xlsx
+++ b/Data/Source_Data/Issues_Data/Production_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\india-intern10\Desktop\Dhruv Data\Folder for Ashwin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\india-intern10\Desktop\Terasaka_Demo\1_Code_modular\Data\Source_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03578CF-36BA-495F-BB9B-34DCC1015619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52965CFC-C993-442B-81C8-24BA3C124F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -373,18 +373,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E181"/>
+  <dimension ref="A1:E187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="I189" sqref="I189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -3464,6 +3463,108 @@
         <v>130</v>
       </c>
     </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A182" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C182" t="s">
+        <v>6</v>
+      </c>
+      <c r="D182">
+        <v>9.3356999999999992</v>
+      </c>
+      <c r="E182">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A183" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C183" t="s">
+        <v>7</v>
+      </c>
+      <c r="D183">
+        <v>8.7071000000000005</v>
+      </c>
+      <c r="E183">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A184" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B184" t="s">
+        <v>8</v>
+      </c>
+      <c r="C184" t="s">
+        <v>6</v>
+      </c>
+      <c r="D184">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="E184">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A185" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B185" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185" t="s">
+        <v>7</v>
+      </c>
+      <c r="D185">
+        <v>8.48</v>
+      </c>
+      <c r="E185">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A186" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B186" t="s">
+        <v>9</v>
+      </c>
+      <c r="C186" t="s">
+        <v>6</v>
+      </c>
+      <c r="D186">
+        <v>9.9692000000000007</v>
+      </c>
+      <c r="E186">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A187" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B187" t="s">
+        <v>9</v>
+      </c>
+      <c r="C187" t="s">
+        <v>7</v>
+      </c>
+      <c r="D187">
+        <v>10</v>
+      </c>
+      <c r="E187">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
